--- a/docs/source/_static/Excel/城市名称列表.xlsx
+++ b/docs/source/_static/Excel/城市名称列表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bdc73678079cf0ff/Code/预测软件/xianzhiyuce_docs/docs/source/_static/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{5DEB4F27-FB92-4DBA-B6C3-39BAE6401DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16FED894-2919-4EA2-A6C2-AA02C74EE511}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{5DEB4F27-FB92-4DBA-B6C3-39BAE6401DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35668313-6759-4188-9022-3D40A127356B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9736,7 +9736,7 @@
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10020,7 +10020,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9969E810-8DBA-4849-A4DB-F92B4307510C}">
   <dimension ref="A1:D3219"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
